--- a/biology/Botanique/Érine_des_Alpes/Érine_des_Alpes.xlsx
+++ b/biology/Botanique/Érine_des_Alpes/Érine_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rine_des_Alpes</t>
+          <t>Érine_des_Alpes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erinus alpinus
 L'érine des Alpes (Erinus alpinus), également appelée Mandeline des Alpes, est une espèce de plante herbacée vivace. Elle appartient à la famille des Scrophulariaceae selon la classification classique, ou à celle des Plantaginaceae selon la classification phylogénétique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rine_des_Alpes</t>
+          <t>Érine_des_Alpes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Montagnes du centre et du sud-ouest de l'Europe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montagnes du centre et du sud-ouest de l'Europe.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rine_des_Alpes</t>
+          <t>Érine_des_Alpes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'érine des Alpes est une plante vivace formant des touffes dans les rochers et les éboulis, calcaires principalement. Les tiges, simples, sont étalées à la base, puis redressées.Les feuilles basales sont rapprochées en rosette. Les feuilles de la tige sont alternes, de forme lancéolée-spatulée.Les fleurs sont roses ou purpurines, regroupées en grappes. La corolle à tube grêle comporte 5 lobes échancrés, 4 étamines.Le calice est velu, avec 5 lobes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'érine des Alpes est une plante vivace formant des touffes dans les rochers et les éboulis, calcaires principalement. Les tiges, simples, sont étalées à la base, puis redressées.Les feuilles basales sont rapprochées en rosette. Les feuilles de la tige sont alternes, de forme lancéolée-spatulée.Les fleurs sont roses ou purpurines, regroupées en grappes. La corolle à tube grêle comporte 5 lobes échancrés, 4 étamines.Le calice est velu, avec 5 lobes.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89rine_des_Alpes</t>
+          <t>Érine_des_Alpes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Erinus alpinus 'Albus'
